--- a/PCB/EEGFrontOnly_BOM.xlsx
+++ b/PCB/EEGFrontOnly_BOM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/repos/EEGAcqSys/PCB/"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Designator</t>
   </si>
@@ -209,9 +209,6 @@
     <t>C15008</t>
   </si>
   <si>
-    <t>自己贴</t>
-  </si>
-  <si>
     <t>C23967</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>C2286</t>
   </si>
   <si>
-    <t>换成红色了</t>
-  </si>
-  <si>
     <t xml:space="preserve">C51725 </t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>SOT-23-6</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -342,19 +333,22 @@
   </si>
   <si>
     <t>脑电前端芯片</t>
-  </si>
-  <si>
-    <t>价格</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,7 +665,7 @@
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,14 +687,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -723,7 +711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -746,7 +734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -769,7 +757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -792,7 +780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -815,7 +803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -838,7 +826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -861,7 +849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -883,11 +871,8 @@
       <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -907,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -930,10 +915,10 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -953,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -976,13 +961,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1002,10 +984,10 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1025,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1048,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1071,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1094,10 +1076,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1117,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1140,158 +1122,155 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="I20">
-        <v>27.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
       <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
@@ -1523,6 +1502,8 @@
       <c r="D108" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>